--- a/biology/Botanique/Ixonanthaceae/Ixonanthaceae.xlsx
+++ b/biology/Botanique/Ixonanthaceae/Ixonanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ixonanthaceae (les Ixonanthacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Malpighiales qui comprend 21 espèces réparties en 5 genres.
 Ce sont des arbres et des arbustes, à feuilles alternes, des régions tropicales.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le nom vient du genre type Ixonanthes composé des mots grecs ιξος / ixos, « baie du gui », « glu à oiseau (préparée avec la baie »)[1], et ανθος / anthos, fleur, en référence aux fleurs collantes de la plante[2].
-Noms vernaculaires
-À Singapour l’espèce Ixonanthes icosandra (sv) Jack, est appelée « Twenty Men Tree » (« arbre des vingt hommes) »[3] et l’espèce Ixonanthes reticulata (sv) Jack, est appelée « Ten Men Tree » (« arbre des dix hommes) mais aussi Pagar Anak, Inggir Burong, Nyiran Burong et  粘木  (« Bois collant »)[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ixonanthes composé des mots grecs ιξος / ixos, « baie du gui », « glu à oiseau (préparée avec la baie »), et ανθος / anthos, fleur, en référence aux fleurs collantes de la plante.
 </t>
         </is>
       </c>
@@ -543,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Classification</t>
+          <t>Désignation</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malpighiales.
-La classification phylogénétique APG IV (2016)[4] déplace les Allantospermum (en) dans les Irvingiaceae.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Singapour l’espèce Ixonanthes icosandra (sv) Jack, est appelée « Twenty Men Tree » (« arbre des vingt hommes) » et l’espèce Ixonanthes reticulata (sv) Jack, est appelée « Ten Men Tree » (« arbre des dix hommes) mais aussi Pagar Anak, Inggir Burong, Nyiran Burong et  粘木  (« Bois collant »).
 </t>
         </is>
       </c>
@@ -575,16 +595,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Malpighiales.
+La classification phylogénétique APG IV (2016) déplace les Allantospermum (en) dans les Irvingiaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ixonanthaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ixonanthaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (11 décembre 2016) :
 genre Cyrillopsis (pt)
 genre Ixonanthes
 genre Ochthocosmus (es)
-Selon DELTA Angio           (11 décembre 2016)[6] et NCBI  (11 décembre 2016)[7] :
+Selon DELTA Angio           (11 décembre 2016) et NCBI  (11 décembre 2016) :
 genre Allantospermum (en)
 genre Cyrillopsis (pt)
 genre Ixonanthes
@@ -593,33 +649,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ixonanthaceae</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ixonanthaceae</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (11 décembre 2016)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (11 décembre 2016) :
 genre Allantospermum
 Allantospermum borneense
 genre Cyrillopsis
